--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scsadmin/QualGent_LLM_evaluation/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0827EAA-3815-EB42-99A4-1A048DB95D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C492D0D7-F183-3F4C-96EB-8523A8DD505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="2700" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{426E3BB9-0562-B94A-BE4C-92C55434F97C}"/>
+    <workbookView xWindow="6160" yWindow="2700" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{426E3BB9-0562-B94A-BE4C-92C55434F97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>task_num</t>
   </si>
@@ -150,6 +152,15 @@
   </si>
   <si>
     <t xml:space="preserve"> My run</t>
+  </si>
+  <si>
+    <t>Max steps</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
   </si>
 </sst>
 </file>
@@ -2162,47 +2173,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F3AA98-174E-1B43-8E21-97E70CE5256B}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>15</v>
       </c>
-      <c r="D2" s="6">
-        <f>B2-C2</f>
+      <c r="E2" s="6">
+        <f>C2-D2</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2212,12 +2230,15 @@
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D6" si="0">B3-C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E6" si="0">C3-D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2227,12 +2248,15 @@
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2242,12 +2266,15 @@
       <c r="C5">
         <v>22</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2255,29 +2282,258 @@
         <v>12</v>
       </c>
       <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>12</v>
       </c>
       <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" ref="D3:D7" si="1">B7-C7</f>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7" si="1">C7-D7</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0906AD73-5261-7B41-8116-37CC81947325}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6">
+        <f>C2-D2</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7">
+        <f>C3-D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7">
+        <f>C4-D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7">
+        <f>C5-D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6">
+        <f>C6-D6</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8">
+        <f>C7-D7</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D71FC9-5ED4-BC41-913F-A7AA88212098}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8">
+        <f>C2-F2</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>